--- a/template/test.xlsx
+++ b/template/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ServerFolders\Repository\sharon\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sp80\Repositories\sharon\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE986AA5-0A56-460D-9F79-6B113F1DB900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21513A9E-CE7E-44ED-9D67-D69324336ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18324" yWindow="8616" windowWidth="19644" windowHeight="15684" activeTab="1" xr2:uid="{D39C51AB-043C-41E7-B6D8-ACF807CF74EB}"/>
+    <workbookView xWindow="720" yWindow="4620" windowWidth="25920" windowHeight="16440" xr2:uid="{D39C51AB-043C-41E7-B6D8-ACF807CF74EB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>{#sheet once}</t>
     <phoneticPr fontId="1"/>
@@ -48,39 +48,6 @@
   </si>
   <si>
     <t>{#sheet class}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{#~}は制御文。A列に存在する必要がある。また、制御文のある行は出力されない。</t>
-    <rPh sb="5" eb="8">
-      <t>セイギョブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>セイギョブン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{$file_name}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -521,12 +488,19 @@
     <t>{$description}</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プログラム設計書</t>
+    <rPh sb="5" eb="8">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +522,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -718,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +797,12 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -836,12 +824,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -851,17 +833,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,44 +1162,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987E3CA3-BDD2-4C80-9D4F-E78B2D2ECBA8}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C4"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="13"/>
+    </row>
+    <row r="5" spans="1:28" ht="41.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="11"/>
+      <c r="B5" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="13"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="13"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="13"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="13"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="13"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="13"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="13"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="13"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="13"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86B8A53-F6F9-4E97-AD0E-94FEEA8D3F15}">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1224,112 +1682,112 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1361,37 +1819,37 @@
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
@@ -1399,35 +1857,35 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="39"/>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1459,7 +1917,7 @@
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1491,39 +1949,39 @@
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
+      <c r="F10" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="26"/>
@@ -1531,37 +1989,37 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
+      <c r="F11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1623,11 +2081,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="P11:AB11"/>
-    <mergeCell ref="P10:AB10"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F10:O10"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:AB6"/>
     <mergeCell ref="F7:AB7"/>
@@ -1638,19 +2091,26 @@
     <mergeCell ref="J3:AB3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:AB4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="P11:AB11"/>
+    <mergeCell ref="P10:AB10"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="F10:O10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB34B6-D47E-44C9-897F-D2A4AE003EB2}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1660,112 +2120,112 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
+      <c r="A2" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
+      <c r="A4" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1797,37 +2257,37 @@
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
@@ -1835,35 +2295,35 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="39"/>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1895,7 +2355,7 @@
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1927,37 +2387,37 @@
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="36"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
@@ -1965,35 +2425,35 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="39"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2024,42 +2484,42 @@
       <c r="AB12" s="10"/>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="37"/>
+      <c r="A13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="39"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2091,41 +2551,41 @@
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
+      <c r="F15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
     </row>
     <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="41"/>
@@ -2133,39 +2593,39 @@
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="43"/>
-      <c r="F16" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
+      <c r="F16" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2197,7 +2657,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2229,39 +2689,39 @@
     </row>
     <row r="19" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
+      <c r="F19" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
     </row>
     <row r="20" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="41"/>
@@ -2269,37 +2729,37 @@
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
+      <c r="F20" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2361,16 +2821,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="R20:AB20"/>
-    <mergeCell ref="F20:Q20"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="R16:AB16"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="R19:AB19"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AB2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:AB3"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:AB13"/>
     <mergeCell ref="A4:E4"/>
@@ -2385,23 +2840,31 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:AB10"/>
     <mergeCell ref="F11:AB11"/>
-    <mergeCell ref="A2:E3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AB2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:AB3"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="R20:AB20"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:AB16"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="R19:AB19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CFFC4-3946-42EB-AA36-6FF065EF7449}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2410,188 +2873,188 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="39"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
+      <c r="F6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2627,37 +3090,37 @@
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
       <c r="E8" s="43"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2689,7 +3152,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2725,39 +3188,39 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
+      <c r="F11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2789,7 +3252,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2821,77 +3284,77 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
+      <c r="F14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2923,7 +3386,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2955,77 +3418,77 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
+      <c r="F18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3087,7 +3550,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3119,7 +3582,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3152,12 +3615,12 @@
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3185,7 +3648,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3217,7 +3680,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3249,33 +3712,33 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
-      <c r="B27" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
+      <c r="B27" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -3285,33 +3748,33 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
-      <c r="B28" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
+      <c r="B28" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -3351,7 +3814,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3383,7 +3846,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3415,74 +3878,74 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
       <c r="AB32" s="4"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
-      <c r="B33" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40" t="s">
+      <c r="B33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
       <c r="AB33" s="4"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.45">
@@ -3517,7 +3980,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3609,7 +4072,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3671,35 +4134,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="R19:AB19"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R11:AB11"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:Q18"/>
-    <mergeCell ref="R18:AB18"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:AB5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A2:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AB2"/>
-    <mergeCell ref="J3:AB3"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:O33"/>
-    <mergeCell ref="P33:AA33"/>
-    <mergeCell ref="P32:AA32"/>
-    <mergeCell ref="K28:V28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:O32"/>
     <mergeCell ref="K27:V27"/>
     <mergeCell ref="D27:J27"/>
     <mergeCell ref="B27:C27"/>
@@ -3716,9 +4150,38 @@
     <mergeCell ref="R15:AB15"/>
     <mergeCell ref="F14:Q14"/>
     <mergeCell ref="F15:Q15"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="P33:AA33"/>
+    <mergeCell ref="P32:AA32"/>
+    <mergeCell ref="K28:V28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AB2"/>
+    <mergeCell ref="J3:AB3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:AB5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="R19:AB19"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R11:AB11"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="R18:AB18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/test.xlsx
+++ b/template/test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sp80\Repositories\sharon\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21513A9E-CE7E-44ED-9D67-D69324336ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7729C0-99B5-4570-8814-4F421D4880A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="4620" windowWidth="25920" windowHeight="16440" xr2:uid="{D39C51AB-043C-41E7-B6D8-ACF807CF74EB}"/>
+    <workbookView xWindow="8436" yWindow="3384" windowWidth="25920" windowHeight="16440" activeTab="4" xr2:uid="{D39C51AB-043C-41E7-B6D8-ACF807CF74EB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="ファイル" sheetId="2" r:id="rId2"/>
     <sheet name="クラス {$name}" sheetId="3" r:id="rId3"/>
     <sheet name="メソッド {$name}" sheetId="4" r:id="rId4"/>
+    <sheet name="列挙型 {$name}" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>{#sheet once}</t>
     <phoneticPr fontId="1"/>
@@ -493,6 +494,39 @@
     <rPh sb="5" eb="8">
       <t>セッケイショ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{#sheet enum}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型仕様書</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{#begin entries header:1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{#end entries}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントリ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -700,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +822,18 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -797,33 +843,33 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -833,6 +879,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -841,12 +890,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,7 +1210,7 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1268,34 +1311,34 @@
     </row>
     <row r="5" spans="1:28" ht="41.4" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
       <c r="AB5" s="13"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
@@ -1682,108 +1725,108 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="33" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="33" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="32" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="41"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
@@ -1818,38 +1861,38 @@
       <c r="AB5" s="10"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="34" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="38"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
@@ -1857,31 +1900,31 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
@@ -1948,40 +1991,40 @@
       <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="33" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="26"/>
@@ -1989,33 +2032,33 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32" t="s">
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
@@ -2081,6 +2124,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="P11:AB11"/>
+    <mergeCell ref="P10:AB10"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="F10:O10"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:AB6"/>
     <mergeCell ref="F7:AB7"/>
@@ -2091,11 +2139,6 @@
     <mergeCell ref="J3:AB3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:AB4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="P11:AB11"/>
-    <mergeCell ref="P10:AB10"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F10:O10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,108 +2163,108 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="33" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="33" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="32" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="41"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
@@ -2256,38 +2299,38 @@
       <c r="AB5" s="10"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="34" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="38"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
@@ -2295,31 +2338,31 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
@@ -2386,38 +2429,38 @@
       <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="34" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="38"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
@@ -2425,31 +2468,31 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="41"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
@@ -2484,38 +2527,38 @@
       <c r="AB12" s="10"/>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="41"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
@@ -2550,78 +2593,78 @@
       <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33" t="s">
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
     </row>
     <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="32" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32" t="s">
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
@@ -2688,74 +2731,74 @@
       <c r="AB18" s="16"/>
     </row>
     <row r="19" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="34" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="33" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
     </row>
     <row r="20" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="37" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="32" t="s">
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
@@ -2821,11 +2864,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:E3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AB2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:AB3"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="R20:AB20"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:AB16"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="R19:AB19"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:AB13"/>
     <mergeCell ref="A4:E4"/>
@@ -2840,16 +2888,11 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:AB10"/>
     <mergeCell ref="F11:AB11"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="R20:AB20"/>
-    <mergeCell ref="F20:Q20"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="R16:AB16"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="R19:AB19"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AB2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2877,180 +2920,180 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="33" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="33" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="32" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="41"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="41"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="33" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33" t="s">
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
@@ -3085,38 +3128,38 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32" t="s">
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -3183,40 +3226,40 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="32" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32" t="s">
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32" t="s">
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -3283,74 +3326,74 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="34" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="33" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="37" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="32" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
@@ -3417,74 +3460,74 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="34" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="33" t="s">
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="37" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="32" t="s">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
@@ -3712,33 +3755,33 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47" t="s">
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -3748,33 +3791,33 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32" t="s">
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -3878,74 +3921,74 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47" t="s">
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
       <c r="AB32" s="4"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32" t="s">
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
       <c r="AB33" s="4"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.45">
@@ -4134,6 +4177,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="R19:AB19"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R11:AB11"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="R18:AB18"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:AB5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AB2"/>
+    <mergeCell ref="J3:AB3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="P33:AA33"/>
+    <mergeCell ref="P32:AA32"/>
+    <mergeCell ref="K28:V28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:O32"/>
     <mergeCell ref="K27:V27"/>
     <mergeCell ref="D27:J27"/>
     <mergeCell ref="B27:C27"/>
@@ -4150,38 +4222,772 @@
     <mergeCell ref="R15:AB15"/>
     <mergeCell ref="F14:Q14"/>
     <mergeCell ref="F15:Q15"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:O33"/>
-    <mergeCell ref="P33:AA33"/>
-    <mergeCell ref="P32:AA32"/>
-    <mergeCell ref="K28:V28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="A2:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AB2"/>
-    <mergeCell ref="J3:AB3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:AB5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="R19:AB19"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R11:AB11"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:Q18"/>
-    <mergeCell ref="R18:AB18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA43B21D-773D-4A11-A3E1-CDD9B320BD1F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AB22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="41"/>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="38"/>
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+    </row>
+    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="41"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+    </row>
+    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="16"/>
+    </row>
+    <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+    </row>
+    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="16"/>
+    </row>
+    <row r="19" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+    </row>
+    <row r="20" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="13"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="R20:AB20"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="R11:AB11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:AB16"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="R19:AB19"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:AB9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:AB15"/>
+    <mergeCell ref="R12:AB12"/>
+    <mergeCell ref="F11:Q11"/>
+    <mergeCell ref="F12:Q12"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="F7:AB7"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AB2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:AB3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:AB4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>